--- a/examples/成绩排名证明/2022级智能建造学生成绩排名_datafeed.xlsx
+++ b/examples/成绩排名证明/2022级智能建造学生成绩排名_datafeed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\徐志超\office_share\dev_workspace\lab_python-docx_and_excel\this-is-the-very-document-you-want\examples\成绩排名证明\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CA51C2-5D52-4E11-AC1C-F9C8F062B6C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0DC0B8-3D42-49BC-8A92-01F5656A8508}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="23040" windowHeight="9000" xr2:uid="{CB7827E4-E2FA-4276-8CA7-1A3122C2B2C4}"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="9000" xr2:uid="{CB7827E4-E2FA-4276-8CA7-1A3122C2B2C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,9 +58,6 @@
     <t>stu_id</t>
   </si>
   <si>
-    <t>stu_colledge</t>
-  </si>
-  <si>
     <t>stu_grade</t>
   </si>
   <si>
@@ -142,6 +139,10 @@
   </si>
   <si>
     <t>杨利</t>
+  </si>
+  <si>
+    <t>stu_college</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -556,7 +557,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -598,22 +599,22 @@
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,13 +622,13 @@
         <v>2210650101</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>2022</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -648,13 +649,13 @@
         <v>2210650102</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>2022</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>7</v>
@@ -675,13 +676,13 @@
         <v>2210650103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>2022</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -702,13 +703,13 @@
         <v>2210650104</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>2022</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>7</v>
@@ -729,13 +730,13 @@
         <v>2210650105</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1">
         <v>2022</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>7</v>
@@ -756,13 +757,13 @@
         <v>2210650106</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>2022</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>7</v>
@@ -783,13 +784,13 @@
         <v>2210650107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <v>2022</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>7</v>
@@ -810,13 +811,13 @@
         <v>2210650108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>2022</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
@@ -837,13 +838,13 @@
         <v>2210650109</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>2022</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -864,13 +865,13 @@
         <v>2210650110</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>2022</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>7</v>
@@ -891,13 +892,13 @@
         <v>2210650111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>2022</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
@@ -918,13 +919,13 @@
         <v>2210650112</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1">
         <v>2022</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -945,13 +946,13 @@
         <v>2210650113</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>2022</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
@@ -972,13 +973,13 @@
         <v>2210650114</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>2022</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>7</v>
@@ -999,13 +1000,13 @@
         <v>2210650115</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>2022</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -1026,13 +1027,13 @@
         <v>2210650116</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1">
         <v>2022</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
@@ -1053,13 +1054,13 @@
         <v>2210650117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>2022</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>7</v>
@@ -1080,13 +1081,13 @@
         <v>2210650118</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="1">
         <v>2022</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
@@ -1107,13 +1108,13 @@
         <v>2210650119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1">
         <v>2022</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>7</v>
@@ -1134,13 +1135,13 @@
         <v>2210650120</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="1">
         <v>2022</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
